--- a/Test_data/signoware_data.xlsx
+++ b/Test_data/signoware_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SignowareAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B25577-2848-4917-B16C-98F7CC1AA324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC9A27-ED96-46E0-8C40-D0B09B482E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AA19C13-E1EC-4572-AD51-C52072445AD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8AA19C13-E1EC-4572-AD51-C52072445AD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Valid Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="InValid Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>${email}</t>
   </si>
@@ -47,10 +48,31 @@
     <t>ram10@gmail.com</t>
   </si>
   <si>
-    <t>Ram@123</t>
-  </si>
-  <si>
     <t>valid credential</t>
+  </si>
+  <si>
+    <t>Ram@1234</t>
+  </si>
+  <si>
+    <t>Invalid Credential</t>
+  </si>
+  <si>
+    <t>ram123@gmail.com</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>roninrey@gmail.com</t>
+  </si>
+  <si>
+    <t>rey123</t>
+  </si>
+  <si>
+    <t>abi10@gmail.com</t>
+  </si>
+  <si>
+    <t>abi@2420</t>
   </si>
 </sst>
 </file>
@@ -95,9 +117,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D30A5D-FC4D-4F99-942C-8F4D8336858F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -455,4 +480,76 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE7211-2ECA-46B1-A20F-9B357FE5DBBC}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{16EFF674-2474-4523-B8AF-BD32640DE540}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Ram@1234" xr:uid="{8B9E7083-2BC4-4EB8-AF98-1779AE1AC6F8}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{742FE3B5-9B67-4F12-8586-56253F835B25}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{144C3E92-CFAD-421D-A36A-17E888B498DE}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{94C965E9-B7B3-4B12-913E-216A9F57E9C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+</worksheet>
 </file>